--- a/Imag/frank/resultados.xlsx
+++ b/Imag/frank/resultados.xlsx
@@ -490,31 +490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03341490548041987</v>
+        <v>0.01579396962280596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08520088535014181</v>
+        <v>0.9059883178278718</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3147451341515594</v>
+        <v>0.4068916641401944</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(3.5344455375580734,)</t>
+          <t>(-0.18352346768745087,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(3.5344455375580734, 0.08520088535014181, 0.31474513415155936)</t>
+          <t>(-0.18352346768745087, 0.9059883178278718, 0.4068916641401944)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9800DD8D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03099510&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -529,31 +529,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03766552661355124</v>
+        <v>0.01691294232555815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008536870470242207</v>
+        <v>0.1234999224866229</v>
       </c>
       <c r="D3" t="n">
-        <v>12.37437791598696</v>
+        <v>0.9414840341273607</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(3.8650688266765836, 36.266899306076084)</t>
+          <t>(0.5630240979818424,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(3.8650688266765836, 36.266899306076084, 0.008536870470242207, 12.374377915986956)</t>
+          <t>(0.5630240979818424, 0.12349992248662292, 0.9414840341273607)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9800DD660&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03098400&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -568,31 +568,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03778548312081824</v>
+        <v>0.04662139642791242</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2357527551455029</v>
+        <v>0.300032436784077</v>
       </c>
       <c r="D4" t="n">
-        <v>1.32097011908732</v>
+        <v>32393876785.14483</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.4039965495036039,)</t>
+          <t>(2.1168217830575546, 73982081540.70688)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.4039965495036039, -0.2357527551455029, 1.3209701190873202)</t>
+          <t>(2.1168217830575546, 73982081540.70688, 0.300032436784077, 32393876785.14483)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9800DDC00&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0309BBE0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -607,31 +607,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0443926977766917</v>
+        <v>0.04837060707832044</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9197595089276347</v>
+        <v>0.301663566793246</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4439014671561388</v>
+        <v>0.4430965965426076</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(-0.04784562634416498,)</t>
+          <t>(2.0916305427888684,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(-0.04784562634416498, 0.9197595089276347, 0.44390146715613876)</t>
+          <t>(2.0916305427888684, 0.301663566793246, 0.4430965965426076)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9800C6DD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0309AB30&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -650,27 +650,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1851862179574008</v>
+        <v>0.1531380325082415</v>
       </c>
       <c r="C6" t="n">
-        <v>1.126815309440812</v>
+        <v>1.07567242290656</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4691319530663614</v>
+        <v>0.4094155823225902</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(5.158118209650049,)</t>
+          <t>(2.8326074769029868,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(5.158118209650049, 1.1268153094408115, 0.46913195306636135)</t>
+          <t>(2.8326074769029868, 1.0756724229065597, 0.4094155823225902)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9800DD2A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0309BA00&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -689,27 +689,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2424013139352455</v>
+        <v>0.1795668898516232</v>
       </c>
       <c r="C7" t="n">
-        <v>1.15390021784456</v>
+        <v>1.092419080107845</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4768185786421764</v>
+        <v>0.479223086555034</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1.1711072545322074,)</t>
+          <t>(1.0510527722586454,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.1711072545322074, 1.1539002178445603, 0.47681857864217636)</t>
+          <t>(1.0510527722586454, 1.0924190801078453, 0.479223086555034)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9800C5030&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0309B5E0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2531026867977509</v>
+        <v>0.3314656059218647</v>
       </c>
       <c r="C8" t="n">
-        <v>1.197648643267661</v>
+        <v>1.228469818063947</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6074701387831674</v>
+        <v>0.6894457733997683</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -743,12 +743,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.1976486432676612, 0.6074701387831674)</t>
+          <t>(1.2284698180639466, 0.6894457733997683)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9800C54B0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AAE24A0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -767,27 +767,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2690739949145968</v>
+        <v>0.3544569309093914</v>
       </c>
       <c r="C9" t="n">
-        <v>-216.9585597303651</v>
+        <v>-219.472983845479</v>
       </c>
       <c r="D9" t="n">
-        <v>28.57030951824041</v>
+        <v>29.70811176506994</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(2071.2171068613134,)</t>
+          <t>(1684.4816696355165,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(2071.2171068613134, -216.9585597303651, 28.570309518240407)</t>
+          <t>(1684.4816696355165, -219.472983845479, 29.708111765069944)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C98009BC10&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A030982E0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.486238231061688</v>
+        <v>0.4198717024449359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1551178063032171</v>
+        <v>0.3399264777097825</v>
       </c>
       <c r="D10" t="n">
-        <v>1.042530836964444</v>
+        <v>0.888543340354164</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -821,12 +821,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.15511780630321714, 1.0425308369644442)</t>
+          <t>(0.3399264777097825, 0.888543340354164)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9800C6860&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03098070&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -845,27 +845,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.486238248969615</v>
+        <v>0.4198717081781591</v>
       </c>
       <c r="C11" t="n">
-        <v>-67108863.84488219</v>
+        <v>-268435455.6600735</v>
       </c>
       <c r="D11" t="n">
-        <v>67108863.99999999</v>
+        <v>268435456</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(64371107.82726933,)</t>
+          <t>(302107332.0035547,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(64371107.82726933, -67108863.84488219, 67108863.99999999)</t>
+          <t>(302107332.0035547, -268435455.66007352, 268435455.99999997)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9800C6DA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03098FA0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.486536614124188</v>
+        <v>1.148578679337434</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1551178063032171</v>
+        <v>0.3399264777097825</v>
       </c>
       <c r="D12" t="n">
-        <v>5.407091422731601</v>
+        <v>3.900818297852773</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -899,12 +899,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.15511780630321714, 5.407091422731601)</t>
+          <t>(0.3399264777097825, 3.9008182978527732)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9800DE050&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03098340&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -990,31 +990,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05511940904621365</v>
+        <v>0.2459989665903652</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7327955645633647</v>
+        <v>0.9197711863042197</v>
       </c>
       <c r="D2" t="n">
-        <v>0.387142783332154</v>
+        <v>0.3590555483300205</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(-0.14458523983076055,)</t>
+          <t>(0.9624613728042901,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(-0.14458523983076055, 0.7327955645633647, 0.38714278333215396)</t>
+          <t>(0.9624613728042901, 0.9197711863042197, 0.35905554833002046)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C993005D80&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03CE4A90&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1029,31 +1029,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06404945933179468</v>
+        <v>0.3320156422910243</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.08375994815738964</v>
+        <v>0.9208632142155133</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9673649401624258</v>
+        <v>0.3814400501599623</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.5100251457359324,)</t>
+          <t>(4.149216970884337,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.5100251457359324, -0.08375994815738964, 0.9673649401624258)</t>
+          <t>(4.149216970884337, 0.9208632142155133, 0.3814400501599623)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C993004880&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF5DB0&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1068,31 +1068,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1031065343582745</v>
+        <v>0.3664584521455098</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05899389818381803</v>
+        <v>0.7619865768557486</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3375212923380426</v>
+        <v>0.4058523424188267</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(2.8481271888711035,)</t>
+          <t>(0.024321242211033166,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(2.8481271888711035, 0.05899389818381803, 0.33752129233804257)</t>
+          <t>(0.024321242211033166, 0.7619865768557486, 0.40585234241882673)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C993006770&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF7AF0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1107,31 +1107,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1092810405602842</v>
+        <v>0.3691460162688857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06088862099742287</v>
+        <v>-0.6245249468724794</v>
       </c>
       <c r="D5" t="n">
-        <v>19598474.75124529</v>
+        <v>1.537245859677477</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(2.780768237473507, 56597357.14069764)</t>
+          <t>(0.30522212691326167,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(2.780768237473507, 56597357.14069764, 0.06088862099742287, 19598474.75124529)</t>
+          <t>(0.30522212691326167, -0.6245249468724794, 1.5372458596774774)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C993005840&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6350&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1146,31 +1146,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3058903150432677</v>
+        <v>0.3796622505831176</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8967767024142658</v>
+        <v>-0.2221140373327501</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3953707313192824</v>
+        <v>0.2063485946513304</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(3.235060202119625,)</t>
+          <t>(5.856330754956642,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(3.235060202119625, 0.8967767024142658, 0.39537073131928235)</t>
+          <t>(5.856330754956642, -0.22211403733275015, 0.2063485946513304)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9930063E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6110&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1185,31 +1185,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3226279419218803</v>
+        <v>0.3813655018899262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8858116747008093</v>
+        <v>-0.2103464398877061</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4332451349676166</v>
+        <v>924642.7340186712</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1.0323681902999176,)</t>
+          <t>(5.699967433391732, 4402321.236338027)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.0323681902999176, 0.8858116747008093, 0.43324513496761663)</t>
+          <t>(5.699967433391732, 4402321.236338027, -0.21034643988770613, 924642.7340186712)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C993004BE0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF7790&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7050302287980024</v>
+        <v>0.5038378003826709</v>
       </c>
       <c r="C8" t="n">
-        <v>1.020284062100403</v>
+        <v>0.9863316015860418</v>
       </c>
       <c r="D8" t="n">
-        <v>0.631927341247019</v>
+        <v>0.5075241693614819</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1243,12 +1243,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.020284062100403, 0.631927341247019)</t>
+          <t>(0.9863316015860418, 0.5075241693614819)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C992FCFF70&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF7460&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1267,27 +1267,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7545636327456913</v>
+        <v>0.5225721462247075</v>
       </c>
       <c r="C9" t="n">
-        <v>-290.4543566356046</v>
+        <v>-165.9272478351012</v>
       </c>
       <c r="D9" t="n">
-        <v>36.36287210724971</v>
+        <v>22.23865361762727</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(3028.614575926589,)</t>
+          <t>(1818.553813670972,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(3028.614575926589, -290.4543566356046, 36.362872107249714)</t>
+          <t>(1818.553813670972, -165.92724783510124, 22.23865361762727)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C993005360&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6590&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1302,17 +1302,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.852807303106567</v>
+        <v>1.649857405577475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07294012067173065</v>
+        <v>0.05067978770147734</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9473439414286724</v>
+        <v>2.735150728381082</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.07294012067173065, 0.9473439414286724)</t>
+          <t>(0.05067978770147734, 2.735150728381082)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C993004610&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF7760&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1341,31 +1341,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.852807321226439</v>
+        <v>1.703905946362707</v>
       </c>
       <c r="C11" t="n">
-        <v>-67108863.92705988</v>
+        <v>0.05067978770147734</v>
       </c>
       <c r="D11" t="n">
-        <v>67108864</v>
+        <v>0.9356518138845645</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(70838965.23783065,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(70838965.23783065, -67108863.92705988, 67108864.0)</t>
+          <t>(0.05067978770147734, 0.9356518138845645)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C993004D00&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF69E0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1380,31 +1380,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.635021109199574</v>
+        <v>1.703905960778302</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07294012067173065</v>
+        <v>-67108863.94932021</v>
       </c>
       <c r="D12" t="n">
-        <v>6.595498521946245</v>
+        <v>67108863.99999999</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(71724185.87392418,)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.07294012067173065, 6.5954985219462445)</t>
+          <t>(71724185.87392418, -67108863.94932021, 67108863.99999999)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C993006950&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6C20&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1490,31 +1490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03889161342269965</v>
+        <v>0.1459350520355903</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1142644364671344</v>
+        <v>0.03289173548664751</v>
       </c>
       <c r="D2" t="n">
-        <v>0.84219961891397</v>
+        <v>6.18517119245365</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.6267097061824476,)</t>
+          <t>(1.746313483875483, 11.867903862592105)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.6267097061824476, -0.11426443646713441, 0.84219961891397)</t>
+          <t>(1.746313483875483, 11.867903862592105, 0.032891735486647505, 6.18517119245365)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9931292D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0D118C10&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1530,31 +1530,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05112126613208314</v>
+        <v>0.1461311205402152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5740498881700806</v>
+        <v>0.01072532985067569</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3991931898699491</v>
+        <v>0.3769840782415257</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(-0.22283749532989724,)</t>
+          <t>(2.1635911782232595,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(-0.22283749532989724, 0.5740498881700806, 0.3991931898699491)</t>
+          <t>(2.1635911782232595, 0.010725329850675694, 0.37698407824152574)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9931287C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0D118BB0&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1570,31 +1570,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0551054248242728</v>
+        <v>0.1502698322495518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0157049200518541</v>
+        <v>0.567612415402973</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4651591695970468</v>
+        <v>0.3827149408956725</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(1.9164111049046135,)</t>
+          <t>(-0.0930361580495294,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(1.9164111049046135, 0.0157049200518541, 0.46515916959704684)</t>
+          <t>(-0.0930361580495294, 0.567612415402973, 0.3827149408956725)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C99312B0A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF5870&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1610,31 +1610,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05571718021273819</v>
+        <v>0.1514971765873913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01581435304756581</v>
+        <v>-0.2556331005211273</v>
       </c>
       <c r="D5" t="n">
-        <v>325129936802.2499</v>
+        <v>0.961619748005517</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(1.9111246182096386, 696632197795.2296)</t>
+          <t>(0.49026443192254726,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(1.9111246182096386, 696632197795.2296, 0.01581435304756581, 325129936802.2499)</t>
+          <t>(0.49026443192254726, -0.2556331005211273, 0.961619748005517)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C99312A290&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0D11AC50&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1650,31 +1650,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3358012411142404</v>
+        <v>0.1833155134238799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7555441729753911</v>
+        <v>0.7334236436639652</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4338526861171299</v>
+        <v>0.4118589095341785</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(3.0544067979078804,)</t>
+          <t>(1.0836372522109605,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(3.0544067979078804, 0.7555441729753911, 0.4338526861171299)</t>
+          <t>(1.0836372522109605, 0.7334236436639652, 0.4118589095341785)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C99312ACE0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6B30&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1690,31 +1690,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3979389668687343</v>
+        <v>0.2189633743183047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7757507950938471</v>
+        <v>0.7483996982627208</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4936913466453642</v>
+        <v>0.4217126603975691</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1.079972091284568,)</t>
+          <t>(4.7918786192209115,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.079972091284568, 0.7757507950938471, 0.4936913466453642)</t>
+          <t>(4.7918786192209115, 0.7483996982627208, 0.42171266039756905)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C993129A80&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6B00&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1734,13 +1734,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6691144127819486</v>
+        <v>0.3333242359873083</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9071414931581565</v>
+        <v>0.8263607551711725</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6763071225774981</v>
+        <v>0.5390196093801233</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1749,12 +1749,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0.9071414931581565, 0.6763071225774981)</t>
+          <t>(0.8263607551711725, 0.5390196093801233)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C99310F7C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF7100&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1774,27 +1774,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6915509753820941</v>
+        <v>0.3424926694757142</v>
       </c>
       <c r="C9" t="n">
-        <v>-204.762632756234</v>
+        <v>-208.161632431269</v>
       </c>
       <c r="D9" t="n">
-        <v>27.76892768514625</v>
+        <v>26.91245226271892</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1647.1929211924808,)</t>
+          <t>(2358.322460587042,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1647.1929211924808, -204.762632756234, 27.768927685146252)</t>
+          <t>(2358.322460587042, -208.16163243126903, 26.912452262718915)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C993129DB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0D11A230&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8852032976391714</v>
+        <v>0.5499493553031736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0209230578525683</v>
+        <v>0.05440096006940279</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8862184353055882</v>
+        <v>0.7719597951017697</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1829,12 +1829,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.0209230578525683, 0.8862184353055882)</t>
+          <t>(0.05440096006940279, 0.7719597951017697)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C993128FD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6290&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1854,27 +1854,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8852033162086664</v>
+        <v>0.5499493564973967</v>
       </c>
       <c r="C11" t="n">
-        <v>-67108863.97907694</v>
+        <v>-67108863.94559901</v>
       </c>
       <c r="D11" t="n">
-        <v>67108864</v>
+        <v>67108863.99999997</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(75724970.10596178,)</t>
+          <t>(86933108.18361054,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(75724970.10596178, -67108863.979076944, 67108864.0)</t>
+          <t>(86933108.18361054, -67108863.94559901, 67108863.99999997)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C993129900&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF5B10&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1894,13 +1894,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.588835059239861</v>
+        <v>1.19309732801531</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0209230578525683</v>
+        <v>0.05440096006940279</v>
       </c>
       <c r="D12" t="n">
-        <v>4.661956796535457</v>
+        <v>2.817139730264476</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1909,12 +1909,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.0209230578525683, 4.661956796535457)</t>
+          <t>(0.05440096006940279, 2.8171397302644756)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C99312B280&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0D1193F0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">

--- a/Imag/frank/resultados.xlsx
+++ b/Imag/frank/resultados.xlsx
@@ -490,31 +490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01579396962280596</v>
+        <v>0.02723129398213511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9059883178278718</v>
+        <v>0.3035265271629422</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4068916641401944</v>
+        <v>0.7413374832495584</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(-0.18352346768745087,)</t>
+          <t>(0.4959429255156872,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(-0.18352346768745087, 0.9059883178278718, 0.4068916641401944)</t>
+          <t>(0.4959429255156872, 0.30352652716294215, 0.7413374832495584)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03099510&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607CFD0&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -529,31 +529,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01691294232555815</v>
+        <v>0.03718872869839585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1234999224866229</v>
+        <v>0.9334349990469633</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9414840341273607</v>
+        <v>0.2930904493660551</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.5630240979818424,)</t>
+          <t>(-0.1209938852217679,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.5630240979818424, 0.12349992248662292, 0.9414840341273607)</t>
+          <t>(-0.1209938852217679, 0.9334349990469633, 0.2930904493660551)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03098400&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607C160&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -572,27 +572,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04662139642791242</v>
+        <v>0.0506412724750712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.300032436784077</v>
+        <v>0.4167148255387483</v>
       </c>
       <c r="D4" t="n">
-        <v>32393876785.14483</v>
+        <v>710188.2343867946</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(2.1168217830575546, 73982081540.70688)</t>
+          <t>(3.2503100612736433, 3224781.1731240125)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(2.1168217830575546, 73982081540.70688, 0.300032436784077, 32393876785.14483)</t>
+          <t>(3.2503100612736433, 3224781.1731240125, 0.4167148255387483, 710188.2343867946)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0309BBE0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607EAD0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -611,27 +611,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04837060707832044</v>
+        <v>0.05424847274352278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301663566793246</v>
+        <v>0.4393583095374115</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4430965965426076</v>
+        <v>0.2514063510777042</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(2.0916305427888684,)</t>
+          <t>(2.791493441019936,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(2.0916305427888684, 0.301663566793246, 0.4430965965426076)</t>
+          <t>(2.791493441019936, 0.4393583095374115, 0.2514063510777042)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0309AB30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607DC30&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -650,27 +650,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1531380325082415</v>
+        <v>0.4977318099931395</v>
       </c>
       <c r="C6" t="n">
-        <v>1.07567242290656</v>
+        <v>1.065924327150296</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4094155823225902</v>
+        <v>0.3132860405918515</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(2.8326074769029868,)</t>
+          <t>(3.8766770994682167,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(2.8326074769029868, 1.0756724229065597, 0.4094155823225902)</t>
+          <t>(3.8766770994682167, 1.0659243271502963, 0.3132860405918515)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0309BA00&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607F0A0&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -689,27 +689,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1795668898516232</v>
+        <v>0.510958463239372</v>
       </c>
       <c r="C7" t="n">
-        <v>1.092419080107845</v>
+        <v>1.06307628812094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.479223086555034</v>
+        <v>0.3310743001275949</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1.0510527722586454,)</t>
+          <t>(1.1139395746929348,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.0510527722586454, 1.0924190801078453, 0.479223086555034)</t>
+          <t>(1.1139395746929348, 1.0630762881209397, 0.33107430012759487)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0309B5E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607D5A0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3314656059218647</v>
+        <v>0.9365122856951709</v>
       </c>
       <c r="C8" t="n">
-        <v>1.228469818063947</v>
+        <v>1.141157523322613</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6894457733997683</v>
+        <v>0.4329796824210722</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -743,12 +743,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.2284698180639466, 0.6894457733997683)</t>
+          <t>(1.1411575233226134, 0.4329796824210722)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AAE24A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607F400&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -767,27 +767,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3544569309093914</v>
+        <v>1.010575347526083</v>
       </c>
       <c r="C9" t="n">
-        <v>-219.472983845479</v>
+        <v>-111.8506368653003</v>
       </c>
       <c r="D9" t="n">
-        <v>29.70811176506994</v>
+        <v>15.79737225626602</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1684.4816696355165,)</t>
+          <t>(1278.273159915484,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1684.4816696355165, -219.472983845479, 29.708111765069944)</t>
+          <t>(1278.273159915484, -111.85063686530029, 15.79737225626602)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A030982E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607F310&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -802,31 +802,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4198717024449359</v>
+        <v>2.908400889219902</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3399264777097825</v>
+        <v>-67108863.54450791</v>
       </c>
       <c r="D10" t="n">
-        <v>0.888543340354164</v>
+        <v>67108863.99999999</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(97874066.41031563,)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.3399264777097825, 0.888543340354164)</t>
+          <t>(97874066.41031563, -67108863.54450791, 67108863.99999999)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03098070&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607E290&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -841,31 +841,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4198717081781591</v>
+        <v>2.908400898784024</v>
       </c>
       <c r="C11" t="n">
-        <v>-268435455.6600735</v>
+        <v>0.4554920866518913</v>
       </c>
       <c r="D11" t="n">
-        <v>268435456</v>
+        <v>0.6856654366707222</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(302107332.0035547,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(302107332.0035547, -268435455.66007352, 268435455.99999997)</t>
+          <t>(0.4554920866518913, 0.6856654366707222)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03098FA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607F8E0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.148578679337434</v>
+        <v>4.451628817006863</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3399264777097825</v>
+        <v>0.4554920866518913</v>
       </c>
       <c r="D12" t="n">
-        <v>3.900818297852773</v>
+        <v>2.66872487393118</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -899,12 +899,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.3399264777097825, 3.9008182978527732)</t>
+          <t>(0.4554920866518913, 2.6687248739311804)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03098340&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607EBF0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -990,31 +990,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2459989665903652</v>
+        <v>0.1588757607574545</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9197711863042197</v>
+        <v>0.3105827334050066</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3590555483300205</v>
+        <v>0.8115102340314065</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.9624613728042901,)</t>
+          <t>(0.4626704609919035,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.9624613728042901, 0.9197711863042197, 0.35905554833002046)</t>
+          <t>(0.4626704609919035, 0.3105827334050066, 0.8115102340314065)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03CE4A90&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001DA50&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1029,31 +1029,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3320156422910243</v>
+        <v>0.1674540406693403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9208632142155133</v>
+        <v>1.00367255900786</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3814400501599623</v>
+        <v>0.2990991148055153</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(4.149216970884337,)</t>
+          <t>(-0.11632687593569911,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(4.149216970884337, 0.9208632142155133, 0.3814400501599623)</t>
+          <t>(-0.11632687593569911, 1.0036725590078603, 0.2990991148055153)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF5DB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001C820&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1068,31 +1068,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3664584521455098</v>
+        <v>0.2425522166198933</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7619865768557486</v>
+        <v>0.4077268447780571</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4058523424188267</v>
+        <v>0.2171943846958772</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.024321242211033166,)</t>
+          <t>(3.713927299606572,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.024321242211033166, 0.7619865768557486, 0.40585234241882673)</t>
+          <t>(3.713927299606572, 0.4077268447780571, 0.2171943846958772)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF7AF0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001FCD0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1107,31 +1107,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3691460162688857</v>
+        <v>0.645724882471395</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6245249468724794</v>
+        <v>1.135910349251428</v>
       </c>
       <c r="D5" t="n">
-        <v>1.537245859677477</v>
+        <v>0.3164425573279088</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0.30522212691326167,)</t>
+          <t>(3.7930151903806504,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.30522212691326167, -0.6245249468724794, 1.5372458596774774)</t>
+          <t>(3.7930151903806504, 1.1359103492514278, 0.3164425573279088)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6350&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001DE40&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1146,31 +1146,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3796622505831176</v>
+        <v>0.6609049844114303</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2221140373327501</v>
+        <v>1.123394786627557</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2063485946513304</v>
+        <v>0.3356270492735198</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(5.856330754956642,)</t>
+          <t>(1.0981874555327913,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(5.856330754956642, -0.22211403733275015, 0.2063485946513304)</t>
+          <t>(1.0981874555327913, 1.1233947866275569, 0.33562704927351983)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6110&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001C880&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1185,31 +1185,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3813655018899262</v>
+        <v>1.128673498700358</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2103464398877061</v>
+        <v>1.214370575657551</v>
       </c>
       <c r="D7" t="n">
-        <v>924642.7340186712</v>
+        <v>0.4443952835917351</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(5.699967433391732, 4402321.236338027)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(5.699967433391732, 4402321.236338027, -0.21034643988770613, 924642.7340186712)</t>
+          <t>(1.2143705756575507, 0.4443952835917351)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF7790&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001E710&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1224,31 +1224,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5038378003826709</v>
+        <v>1.185273772981471</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9863316015860418</v>
+        <v>-0.2237529494489206</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5075241693614819</v>
+        <v>4.502251530998099</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(4.970342591965048, 10.64874508208992)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0.9863316015860418, 0.5075241693614819)</t>
+          <t>(4.970342591965048, 10.64874508208992, -0.2237529494489206, 4.502251530998099)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF7460&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001F820&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1267,27 +1267,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5225721462247075</v>
+        <v>1.210350610855983</v>
       </c>
       <c r="C9" t="n">
-        <v>-165.9272478351012</v>
+        <v>-136.4617380319923</v>
       </c>
       <c r="D9" t="n">
-        <v>22.23865361762727</v>
+        <v>18.65350588789953</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1818.553813670972,)</t>
+          <t>(1605.2265966053246,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1818.553813670972, -165.92724783510124, 22.23865361762727)</t>
+          <t>(1605.2265966053246, -136.4617380319923, 18.653505887899534)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6590&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001DD80&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1302,17 +1302,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.649857405577475</v>
+        <v>3.952896679299485</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05067978770147734</v>
+        <v>0.4255775240047087</v>
       </c>
       <c r="D10" t="n">
-        <v>2.735150728381082</v>
+        <v>0.788793051652842</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.05067978770147734, 2.735150728381082)</t>
+          <t>(0.4255775240047087, 0.788793051652842)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF7760&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001D840&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1341,31 +1341,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.703905946362707</v>
+        <v>3.952896738876812</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05067978770147734</v>
+        <v>-33554431.57442247</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9356518138845645</v>
+        <v>33554432</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(42538955.55076215,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.05067978770147734, 0.9356518138845645)</t>
+          <t>(42538955.55076215, -33554431.574422475, 33554431.999999996)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF69E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001FD30&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1380,31 +1380,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.703905960778302</v>
+        <v>5.24459072524046</v>
       </c>
       <c r="C12" t="n">
-        <v>-67108863.94932021</v>
+        <v>0.4255775240047087</v>
       </c>
       <c r="D12" t="n">
-        <v>67108863.99999999</v>
+        <v>3.387605760753617</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(71724185.87392418,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(71724185.87392418, -67108863.94932021, 67108863.99999999)</t>
+          <t>(0.4255775240047087, 3.3876057607536167)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6C20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001C850&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1490,31 +1490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1459350520355903</v>
+        <v>0.04186727382192006</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03289173548664751</v>
+        <v>0.2445025929749667</v>
       </c>
       <c r="D2" t="n">
-        <v>6.18517119245365</v>
+        <v>1.008782120869886</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(1.746313483875483, 11.867903862592105)</t>
+          <t>(0.4327406893611446,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(1.746313483875483, 11.867903862592105, 0.032891735486647505, 6.18517119245365)</t>
+          <t>(0.4327406893611446, 0.24450259297496665, 1.0087821208698855)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0D118C10&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000E7D60&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1530,31 +1530,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1461311205402152</v>
+        <v>0.04904294508920145</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01072532985067569</v>
+        <v>1.119187014928657</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3769840782415257</v>
+        <v>0.358607009747875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(2.1635911782232595,)</t>
+          <t>(-0.06632406840964403,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(2.1635911782232595, 0.010725329850675694, 0.37698407824152574)</t>
+          <t>(-0.06632406840964403, 1.1191870149286571, 0.35860700974787496)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0D118BB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F200039F60&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1570,31 +1570,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1502698322495518</v>
+        <v>0.05621694870608535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.567612415402973</v>
+        <v>0.4751840627613021</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3827149408956725</v>
+        <v>0.2715100424516894</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(-0.0930361580495294,)</t>
+          <t>(3.227690078514307,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(-0.0930361580495294, 0.567612415402973, 0.3827149408956725)</t>
+          <t>(3.227690078514307, 0.4751840627613021, 0.2715100424516894)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF5870&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000E7880&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1610,31 +1610,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1514971765873913</v>
+        <v>0.05641151981570262</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2556331005211273</v>
+        <v>0.4754792989947347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.961619748005517</v>
+        <v>653.4890892353112</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0.49026443192254726,)</t>
+          <t>(3.219357873137203, 2398.0883087927705)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.49026443192254726, -0.2556331005211273, 0.961619748005517)</t>
+          <t>(3.219357873137203, 2398.0883087927705, 0.47547929899473473, 653.4890892353112)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0D11AC50&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000E4040&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1650,31 +1650,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1833155134238799</v>
+        <v>0.3342904284270152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7334236436639652</v>
+        <v>1.278574718099871</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4118589095341785</v>
+        <v>0.4547190351903763</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.0836372522109605,)</t>
+          <t>(8.572109541677936,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.0836372522109605, 0.7334236436639652, 0.4118589095341785)</t>
+          <t>(8.572109541677936, 1.278574718099871, 0.45471903519037626)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6B30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2660513C0&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1690,31 +1690,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2189633743183047</v>
+        <v>0.3685125993770536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7483996982627208</v>
+        <v>1.287983637481498</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4217126603975691</v>
+        <v>0.3987942658413421</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(4.7918786192209115,)</t>
+          <t>(1.195626251676102,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(4.7918786192209115, 0.7483996982627208, 0.42171266039756905)</t>
+          <t>(1.195626251676102, 1.287983637481498, 0.39879426584134214)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6B00&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EE980&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1734,13 +1734,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3333242359873083</v>
+        <v>0.5420409914735158</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8263607551711725</v>
+        <v>1.351536125866475</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5390196093801233</v>
+        <v>0.4923906538434033</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1749,12 +1749,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0.8263607551711725, 0.5390196093801233)</t>
+          <t>(1.351536125866475, 0.4923906538434033)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF7100&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2660E01F0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1774,27 +1774,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3424926694757142</v>
+        <v>0.5531814204102181</v>
       </c>
       <c r="C9" t="n">
-        <v>-208.161632431269</v>
+        <v>-150.3645518516244</v>
       </c>
       <c r="D9" t="n">
-        <v>26.91245226271892</v>
+        <v>20.40116342569194</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(2358.322460587042,)</t>
+          <t>(1697.3911285066733,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(2358.322460587042, -208.16163243126903, 26.912452262718915)</t>
+          <t>(1697.3911285066733, -150.36455185162436, 20.40116342569194)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0D11A230&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000E6170&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5499493553031736</v>
+        <v>2.017369778016202</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05440096006940279</v>
+        <v>0.5313137614816954</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7719597951017697</v>
+        <v>0.8202223643847797</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1829,12 +1829,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.05440096006940279, 0.7719597951017697)</t>
+          <t>(0.5313137614816954, 0.8202223643847797)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF6290&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F200086BF0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1854,27 +1854,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5499493564973967</v>
+        <v>2.01736979090595</v>
       </c>
       <c r="C11" t="n">
-        <v>-67108863.94559901</v>
+        <v>-67108863.46868624</v>
       </c>
       <c r="D11" t="n">
-        <v>67108863.99999997</v>
+        <v>67108863.99999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(86933108.18361054,)</t>
+          <t>(81817891.73244815,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(86933108.18361054, -67108863.94559901, 67108863.99999997)</t>
+          <t>(81817891.73244815, -67108863.46868624, 67108863.99999999)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03BF5B10&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F5D750&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1894,13 +1894,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.19309732801531</v>
+        <v>3.307168906894017</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05440096006940279</v>
+        <v>0.5313137614816954</v>
       </c>
       <c r="D12" t="n">
-        <v>2.817139730264476</v>
+        <v>3.577989261068815</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1909,12 +1909,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.05440096006940279, 2.8171397302644756)</t>
+          <t>(0.5313137614816954, 3.577989261068815)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0D1193F0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000FFCD0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">

--- a/Imag/frank/resultados.xlsx
+++ b/Imag/frank/resultados.xlsx
@@ -7,9 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="weak" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="moderate" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="strong" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="50_weak" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="50_moderate" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="50_strong" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="100_weak" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="100_moderate" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="100_strong" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="500_weak" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="500_moderate" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="500_strong" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="1000_weak" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="1000_moderate" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="1000_strong" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,31 +499,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02723129398213511</v>
+        <v>0.01916273930627418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3035265271629422</v>
+        <v>0.3553250877062999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7413374832495584</v>
+        <v>49174.14559734453</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.4959429255156872,)</t>
+          <t>(3.175816348789933, 142500.06701533758)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.4959429255156872, 0.30352652716294215, 0.7413374832495584)</t>
+          <t>(3.175816348789933, 142500.06701533758, 0.3553250877062999, 49174.145597344526)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607CFD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22E7580&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -529,31 +538,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03718872869839585</v>
+        <v>0.01933071210664075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9334349990469633</v>
+        <v>0.3514086014529695</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2930904493660551</v>
+        <v>0.3405852143862168</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(-0.1209938852217679,)</t>
+          <t>(3.2256276580792296,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(-0.1209938852217679, 0.9334349990469633, 0.2930904493660551)</t>
+          <t>(3.2256276580792296, 0.3514086014529695, 0.3405852143862168)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607C160&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22E7BB0&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -568,31 +577,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0506412724750712</v>
+        <v>0.02156940414270936</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4167148255387483</v>
+        <v>0.07535523068490399</v>
       </c>
       <c r="D4" t="n">
-        <v>710188.2343867946</v>
+        <v>1.249981364133633</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(3.2503100612736433, 3224781.1731240125)</t>
+          <t>(0.43817514992514467,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(3.2503100612736433, 3224781.1731240125, 0.4167148255387483, 710188.2343867946)</t>
+          <t>(0.43817514992514467, 0.07535523068490399, 1.2499813641336328)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607EAD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22E7BE0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -607,31 +616,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05424847274352278</v>
+        <v>0.03205205811919225</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4393583095374115</v>
+        <v>1.157900471152841</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2514063510777042</v>
+        <v>0.4499152418834033</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(2.791493441019936,)</t>
+          <t>(-0.06781381511239196,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(2.791493441019936, 0.4393583095374115, 0.2514063510777042)</t>
+          <t>(-0.06781381511239196, 1.157900471152841, 0.4499152418834033)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607DC30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22E7820&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -650,27 +659,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4977318099931395</v>
+        <v>0.2313556030103172</v>
       </c>
       <c r="C6" t="n">
-        <v>1.065924327150296</v>
+        <v>1.385100938613982</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3132860405918515</v>
+        <v>0.5144584397120728</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(3.8766770994682167,)</t>
+          <t>(6.569353846513625,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(3.8766770994682167, 1.0659243271502963, 0.3132860405918515)</t>
+          <t>(6.569353846513625, 1.3851009386139823, 0.5144584397120728)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607F0A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22E6E60&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -685,31 +694,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.510958463239372</v>
+        <v>0.2929820649505921</v>
       </c>
       <c r="C7" t="n">
-        <v>1.06307628812094</v>
+        <v>1.450008122672896</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3310743001275949</v>
+        <v>0.616969395424197</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1.1139395746929348,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.1139395746929348, 1.0630762881209397, 0.33107430012759487)</t>
+          <t>(1.4500081226728962, 0.616969395424197)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607D5A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22E68C0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -724,31 +733,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9365122856951709</v>
+        <v>0.3048633059371866</v>
       </c>
       <c r="C8" t="n">
-        <v>1.141157523322613</v>
+        <v>-214.978894299072</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4329796824210722</v>
+        <v>28.41498708424757</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(2032.4491963006922,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.1411575233226134, 0.4329796824210722)</t>
+          <t>(2032.4491963006922, -214.97889429907195, 28.41498708424757)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607F400&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22E7520&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -763,31 +772,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.010575347526083</v>
+        <v>0.3202182353579822</v>
       </c>
       <c r="C9" t="n">
-        <v>-111.8506368653003</v>
+        <v>1.420678719728022</v>
       </c>
       <c r="D9" t="n">
-        <v>15.79737225626602</v>
+        <v>0.5131314321036791</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1278.273159915484,)</t>
+          <t>(1.2540713321226564,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1278.273159915484, -111.85063686530029, 15.79737225626602)</t>
+          <t>(1.2540713321226564, 1.4206787197280217, 0.5131314321036791)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607F310&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22E7250&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -806,27 +815,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.908400889219902</v>
+        <v>1.24855431460076</v>
       </c>
       <c r="C10" t="n">
-        <v>-67108863.54450791</v>
+        <v>-134217727.5911168</v>
       </c>
       <c r="D10" t="n">
-        <v>67108863.99999999</v>
+        <v>134217728</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(97874066.41031563,)</t>
+          <t>(128916063.4803623,)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(97874066.41031563, -67108863.54450791, 67108863.99999999)</t>
+          <t>(128916063.4803623, -134217727.59111682, 134217727.99999999)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607E290&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22E7970&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -845,13 +854,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.908400898784024</v>
+        <v>1.248554331368419</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4554920866518913</v>
+        <v>0.4088831807343352</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6856654366707222</v>
+        <v>1.041124941938561</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -860,12 +869,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.4554920866518913, 0.6856654366707222)</t>
+          <t>(0.40888318073433516, 1.041124941938561)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607F8E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22E6F50&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -884,13 +893,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.451628817006863</v>
+        <v>1.931260416367294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4554920866518913</v>
+        <v>0.4088831807343352</v>
       </c>
       <c r="D12" t="n">
-        <v>2.66872487393118</v>
+        <v>4.340335916554207</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -899,17 +908,1528 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.4554920866518913, 2.6687248739311804)</t>
+          <t>(0.40888318073433516, 4.340335916554207)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607EBF0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3A7C0A0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.06349838619966226</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9416834285402131</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2877263992116756</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(-0.12907952775288212,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(-0.12907952775288212, 0.9416834285402131, 0.28772639921167564)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E557E6B0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.06944746368479184</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3240521217640804</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7286095955468934</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.49818728432357273,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.49818728432357273, 0.32405212176408044, 0.7286095955468934)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E557E800&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1376477670984904</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4548924932475695</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1466444406.647676</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(2.7906230508428713, 5901836703.717785)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(2.7906230508428713, 5901836703.717785, 0.45489249324756953, 1466444406.6476755)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E557EC80&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1380701612662246</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4551034511044532</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2489350542829717</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(2.7852165402765294,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(2.7852165402765294, 0.45510345110445316, 0.24893505428297175)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E557FCD0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6230760677960119</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.071799930124617</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3123584228885817</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(3.9261716859042957,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(3.9261716859042957, 1.0717999301246168, 0.3123584228885817)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E557E410&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6453476908359937</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.068334260334023</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.328790306803505</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.1110272012103768,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.1110272012103768, 1.0683342603340233, 0.32879030680350496)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E557DEA0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.075669173666581</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.148435629524738</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4297766734909589</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.1484356295247375, 0.42977667349095894)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E557D4B0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.081025751714363</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-141.3596680089618</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.907816599855</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1876.170792510823,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1876.170792510823, -141.35966800896182, 18.907816599854996)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E557F9D0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.858776036540569</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4759962844997829</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6724393450249546</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.47599628449978293, 0.6724393450249546)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E557DA20&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.85877608796607</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-33554431.52400371</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33554432</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(49899567.58162842,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(49899567.58162842, -33554431.524003714, 33554431.999999996)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E557E140&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.964680181380444</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4759962844997829</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.042477407050475</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.47599628449978293, 3.042477407050475)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E557EEF0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.06112307000787683</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2555168106422614</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9110921828818397</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.4264642708463942,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.4264642708463942, 0.25551681064226145, 0.9110921828818397)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5850730&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.07076523301523976</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4435374388789362</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.228925623231143</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(3.5351054625177056,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(3.5351054625177056, 0.44353743887893615, 0.228925623231143)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5852E30&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07105730135724704</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4360768345661046</v>
+      </c>
+      <c r="D4" t="n">
+        <v>725472.4033458289</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.6754378488133836, 3272268.904794936)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.6754378488133836, 3272268.904794936, 0.4360768345661046, 725472.4033458289)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5850B20&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07449302444043815</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.046790179360245</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3197229891722928</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(-0.06336674568600803,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(-0.06336674568600803, 1.046790179360245, 0.3197229891722928)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5851A80&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4576000146806892</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.20035423143749</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3539655566070696</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(5.625091954750648,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(5.625091954750648, 1.2003542314374904, 0.35396555660706963)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5852920&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6281474623820745</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.252814887225784</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4380384281125167</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.2528148872257838, 0.4380384281125167)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5849000&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6638868149420314</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-185.9953201905064</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.6357587988936</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>(2758.6758027981623,)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(2758.6758027981623, -185.9953201905064, 23.635758798893598)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5851BD0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7361448849443099</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.194545947981715</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3546319141096312</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1.2018541645765706,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1.2018541645765706, 1.1945459479817147, 0.35463191410963124)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58516F0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.899051461157183</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4757619982290938</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.77705288899669</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.4757619982290938, 0.77705288899669)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5850C10&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.899051528325312</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-33554431.524238</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33554432</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(43181658.53566663,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(43181658.53566663, -33554431.524238, 33554431.999999996)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5851570&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.594460557456267</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4757619982290938</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.765542789479289</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.4757619982290938, 2.7655427894792894)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5852AA0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04615915286839319</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2215100756638184</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.017740097978227</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.4277735525100733,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.4277735525100733, 0.22151007566381836, 1.0177400979782274)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E564E5F0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05153759213684676</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4587720965053408</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2685295178316039</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(3.2662689595571046,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(3.2662689595571046, 0.4587720965053408, 0.26852951783160395)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5485ED0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0520568886816458</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4620970107619576</v>
+      </c>
+      <c r="D4" t="n">
+        <v>593514.5064336662</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.214424425090227, 2181210.11585177)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.214424425090227, 2181210.11585177, 0.4620970107619576, 593514.5064336662)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E54869B0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05258275699453322</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.105943851556323</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3591174363638748</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(-0.05908470090981831,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(-0.05908470090981831, 1.1059438515563227, 0.3591174363638748)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E564E800&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3455822004850523</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.289567299779222</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4001463450293337</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.2223658739653127,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.2223658739653127, 1.2895672997792225, 0.40014634502933366)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E564E4A0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3481633063849711</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.28421216632131</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4034682324854172</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(6.207664515164431,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(6.207664515164431, 1.2842121663213097, 0.4034682324854172)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E564FFD0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4817787916696349</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.335861056440461</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4876728487772526</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.3358610564404614, 0.4876728487772526)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E564DF90&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.511761732193837</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-159.6718597206067</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.40681872236905</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1847.81655150269,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1847.81655150269, -159.67185972060668, 21.406818722369053)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5484760&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.072985856748848</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4997455603943415</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8361154960461199</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.4997455603943415, 0.8361154960461199)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E564D4B0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.072985879414002</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.50025444</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108863.99999999</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(80262673.10291933,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(80262673.10291933, -67108863.50025444, 67108863.99999999)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E564EB90&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.879734112532414</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4997455603943415</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.109082247391052</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.4997455603943415, 3.1090822473910524)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5485DB0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>#999999</t>
@@ -990,31 +2510,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1588757607574545</v>
+        <v>0.04700592385571019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3105827334050066</v>
+        <v>0.2516005761998683</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8115102340314065</v>
+        <v>670569.8599386797</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.4626704609919035,)</t>
+          <t>(4.083445060855761, 2357997.4719743486)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.4626704609919035, 0.3105827334050066, 0.8115102340314065)</t>
+          <t>(4.083445060855761, 2357997.4719743486, 0.2516005761998683, 670569.8599386797)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001DA50&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E50A1510&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1029,31 +2549,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1674540406693403</v>
+        <v>0.04734427927388842</v>
       </c>
       <c r="C3" t="n">
-        <v>1.00367255900786</v>
+        <v>0.2485340530520038</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2990991148055153</v>
+        <v>0.2819895581676858</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(-0.11632687593569911,)</t>
+          <t>(4.126688999580617,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(-0.11632687593569911, 1.0036725590078603, 0.2990991148055153)</t>
+          <t>(4.126688999580617, 0.24853405305200377, 0.2819895581676858)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001C820&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E50A1A80&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1068,31 +2588,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2425522166198933</v>
+        <v>0.05964931564991875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4077268447780571</v>
+        <v>-0.05827618243025896</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2171943846958772</v>
+        <v>1.366106652344915</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(3.713927299606572,)</t>
+          <t>(0.38504156548335977,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(3.713927299606572, 0.4077268447780571, 0.2171943846958772)</t>
+          <t>(0.38504156548335977, -0.05827618243025896, 1.3661066523449146)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001FCD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E50A1E10&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1107,31 +2627,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.645724882471395</v>
+        <v>0.0704069962758395</v>
       </c>
       <c r="C5" t="n">
-        <v>1.135910349251428</v>
+        <v>1.145028541343394</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3164425573279088</v>
+        <v>0.4430167611386026</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(3.7930151903806504,)</t>
+          <t>(-0.023855453220505696,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(3.7930151903806504, 1.1359103492514278, 0.3164425573279088)</t>
+          <t>(-0.023855453220505696, 1.1450285413433936, 0.44301676113860256)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001DE40&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E50A1990&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1150,27 +2670,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6609049844114303</v>
+        <v>0.170475731317162</v>
       </c>
       <c r="C6" t="n">
-        <v>1.123394786627557</v>
+        <v>1.349674063896785</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3356270492735198</v>
+        <v>0.4804836101142534</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.0981874555327913,)</t>
+          <t>(1.248414525403228,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.0981874555327913, 1.1233947866275569, 0.33562704927351983)</t>
+          <t>(1.248414525403228, 1.3496740638967846, 0.48048361011425345)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001C880&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E50A16C0&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1185,31 +2705,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.128673498700358</v>
+        <v>0.2125513900697623</v>
       </c>
       <c r="C7" t="n">
-        <v>1.214370575657551</v>
+        <v>1.363224601594169</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4443952835917351</v>
+        <v>0.4935264710419225</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(7.471974957471918,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.2143705756575507, 0.4443952835917351)</t>
+          <t>(7.471974957471918, 1.3632246015941694, 0.49352647104192254)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001E710&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E50A2AA0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1224,31 +2744,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.185273772981471</v>
+        <v>0.2576927663317609</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2237529494489206</v>
+        <v>1.412216690210762</v>
       </c>
       <c r="D8" t="n">
-        <v>4.502251530998099</v>
+        <v>0.5789403021500792</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(4.970342591965048, 10.64874508208992)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(4.970342591965048, 10.64874508208992, -0.2237529494489206, 4.502251530998099)</t>
+          <t>(1.4122166902107616, 0.5789403021500792)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001F820&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E50A0610&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1267,27 +2787,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.210350610855983</v>
+        <v>0.2634818789546709</v>
       </c>
       <c r="C9" t="n">
-        <v>-136.4617380319923</v>
+        <v>-182.1276786976294</v>
       </c>
       <c r="D9" t="n">
-        <v>18.65350588789953</v>
+        <v>24.62780479543444</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1605.2265966053246,)</t>
+          <t>(1724.386845836967,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1605.2265966053246, -136.4617380319923, 18.653505887899534)</t>
+          <t>(1724.386845836967, -182.12767869762945, 24.627804795434436)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001DD80&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E50A1D50&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1306,13 +2826,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.952896679299485</v>
+        <v>1.753904425438952</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4255775240047087</v>
+        <v>0.3053368009605936</v>
       </c>
       <c r="D10" t="n">
-        <v>0.788793051652842</v>
+        <v>1.106879889250168</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1321,12 +2841,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.4255775240047087, 0.788793051652842)</t>
+          <t>(0.30533680096059357, 1.106879889250168)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001D840&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E50A0CA0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1345,27 +2865,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.952896738876812</v>
+        <v>1.753904431490275</v>
       </c>
       <c r="C11" t="n">
-        <v>-33554431.57442247</v>
+        <v>-134217727.6946632</v>
       </c>
       <c r="D11" t="n">
-        <v>33554432</v>
+        <v>134217728</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(42538955.55076215,)</t>
+          <t>(121257717.58576347,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(42538955.55076215, -33554431.574422475, 33554431.999999996)</t>
+          <t>(121257717.58576347, -134217727.6946632, 134217727.99999999)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001FD30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E50A0CD0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1384,13 +2904,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.24459072524046</v>
+        <v>2.354631795899548</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4255775240047087</v>
+        <v>0.3053368009605936</v>
       </c>
       <c r="D12" t="n">
-        <v>3.387605760753617</v>
+        <v>4.765767476405258</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1399,12 +2919,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.4255775240047087, 3.3876057607536167)</t>
+          <t>(0.30533680096059357, 4.765767476405258)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001C850&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E50A0DF0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1490,37 +3010,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04186727382192006</v>
+        <v>0.09567597577666083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2445025929749667</v>
+        <v>0.1800923793510316</v>
       </c>
       <c r="D2" t="n">
-        <v>1.008782120869886</v>
+        <v>137329.7883947447</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.4327406893611446,)</t>
+          <t>(4.005669454933594, 556049.5651892642)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.4327406893611446, 0.24450259297496665, 1.0087821208698855)</t>
+          <t>(4.005669454933594, 556049.5651892642, 0.18009237935103156, 137329.78839474474)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000E7D60&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E251AE90&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>#e41a1c</t>
@@ -1530,37 +3049,36 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04904294508920145</v>
+        <v>0.09624741246143562</v>
       </c>
       <c r="C3" t="n">
-        <v>1.119187014928657</v>
+        <v>0.1776877609015997</v>
       </c>
       <c r="D3" t="n">
-        <v>0.358607009747875</v>
+        <v>0.2451198826462825</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(-0.06632406840964403,)</t>
+          <t>(4.0439458771623205,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(-0.06632406840964403, 1.1191870149286571, 0.35860700974787496)</t>
+          <t>(4.0439458771623205, 0.1776877609015997, 0.24511988264628248)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F200039F60&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E251AC20&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>#e41a1c</t>
@@ -1570,37 +3088,36 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05621694870608535</v>
+        <v>0.1122370550093774</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4751840627613021</v>
+        <v>-0.07934038950920799</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2715100424516894</v>
+        <v>1.157365983855102</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(3.227690078514307,)</t>
+          <t>(0.3905400307838397,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(3.227690078514307, 0.4751840627613021, 0.2715100424516894)</t>
+          <t>(0.3905400307838397, -0.07934038950920799, 1.157365983855102)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000E7880&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF657BE0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>#377eb8</t>
@@ -1610,37 +3127,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05641151981570262</v>
+        <v>0.1307848184570456</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4754792989947347</v>
+        <v>0.9385967550560024</v>
       </c>
       <c r="D5" t="n">
-        <v>653.4890892353112</v>
+        <v>0.3797351632295354</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(3.219357873137203, 2398.0883087927705)</t>
+          <t>(-0.02645049586353062,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(3.219357873137203, 2398.0883087927705, 0.47547929899473473, 653.4890892353112)</t>
+          <t>(-0.02645049586353062, 0.9385967550560024, 0.3797351632295354)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000E4040&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E10C9780&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>#4daf4a</t>
@@ -1654,33 +3170,32 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3342904284270152</v>
+        <v>0.3185855445931548</v>
       </c>
       <c r="C6" t="n">
-        <v>1.278574718099871</v>
+        <v>1.126831655362875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4547190351903763</v>
+        <v>0.4277733983644995</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(8.572109541677936,)</t>
+          <t>(7.698320085289755,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(8.572109541677936, 1.278574718099871, 0.45471903519037626)</t>
+          <t>(7.698320085289755, 1.1268316553628754, 0.42777339836449946)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2660513C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E251A290&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>#984ea3</t>
@@ -1694,33 +3209,32 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3685125993770536</v>
+        <v>0.3349264090200904</v>
       </c>
       <c r="C7" t="n">
-        <v>1.287983637481498</v>
+        <v>1.139191544116996</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3987942658413421</v>
+        <v>0.4144966310484163</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1.195626251676102,)</t>
+          <t>(1.248331410772677,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.195626251676102, 1.287983637481498, 0.39879426584134214)</t>
+          <t>(1.248331410772677, 1.1391915441169955, 0.4144966310484163)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EE980&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF70EBC0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>#ff7f00</t>
@@ -1734,13 +3248,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5420409914735158</v>
+        <v>0.3722092845845349</v>
       </c>
       <c r="C8" t="n">
-        <v>1.351536125866475</v>
+        <v>1.16894085354453</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4923906538434033</v>
+        <v>0.4957563047611802</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1749,18 +3263,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.351536125866475, 0.4923906538434033)</t>
+          <t>(1.1689408535445296, 0.4957563047611802)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2660E01F0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E251BFD0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>#ffff33</t>
@@ -1774,33 +3287,32 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5531814204102181</v>
+        <v>0.3870038646236522</v>
       </c>
       <c r="C9" t="n">
-        <v>-150.3645518516244</v>
+        <v>-164.7642555898988</v>
       </c>
       <c r="D9" t="n">
-        <v>20.40116342569194</v>
+        <v>22.04037284377983</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1697.3911285066733,)</t>
+          <t>(1860.9327356869371,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1697.3911285066733, -150.36455185162436, 20.40116342569194)</t>
+          <t>(1860.9327356869371, -164.76425558989877, 22.040372843779835)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000E6170&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E251B0A0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>#a65628</t>
@@ -1814,13 +3326,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.017369778016202</v>
+        <v>2.202582748472145</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5313137614816954</v>
+        <v>0.2342666540357871</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8202223643847797</v>
+        <v>0.9346741995087424</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1829,18 +3341,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.5313137614816954, 0.8202223643847797)</t>
+          <t>(0.23426665403578714, 0.9346741995087424)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F200086BF0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF70FA90&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>#f781bf</t>
@@ -1854,33 +3365,2532 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.01736979090595</v>
+        <v>2.202582786373156</v>
       </c>
       <c r="C11" t="n">
-        <v>-67108863.46868624</v>
+        <v>-67108863.76573335</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108864</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(71799205.11683,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(71799205.11683, -67108863.76573335, 67108864.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2519CF0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.234157079592348</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2342666540357871</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.855762598014454</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.23426665403578714, 2.8557625980144543)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E10C8580&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03855743838067265</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3992285457677122</v>
+      </c>
+      <c r="D2" t="n">
+        <v>614079.1814906751</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(2.869181494665461, 1774388.7086611188)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(2.869181494665461, 1774388.7086611188, 0.39922854576771216, 614079.1814906751)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E248F010&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0386538918799616</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3990918698077</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3456855222552122</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(2.8725100875691147,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(2.8725100875691147, 0.39909186980769995, 0.3456855222552122)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E248EA70&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06201590392836179</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1920248411337805</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.069404021040864</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(0.4838003427406345,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(0.4838003427406345, 0.19202484113378052, 1.0694040210408642)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E248D540&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.08621477142893567</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.10681545271001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4190436271730329</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(-0.09742915130372953,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(-0.09742915130372953, 1.1068154527100105, 0.4190436271730329)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E248DC60&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2653373471540899</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.32837295621912</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4863336451415461</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.2346885698033385,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.2346885698033385, 1.3283729562191198, 0.4863336451415461)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E248F9A0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2836466977226444</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.324364820357006</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4835531542984901</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(6.031504544311257,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(6.031504544311257, 1.324364820357006, 0.48355315429849005)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E248EEC0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3457469936611282</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.392089357993614</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5955559939044067</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.3920893579936138, 0.5955559939044067)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E248D3C0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3563858354069906</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-154.1810001137903</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.71185410220451</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1294.2462266210864,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1294.2462266210864, -154.18100011379028, 21.71185410220451)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E248EDA0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.29072324903808</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4192653822399078</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.972823975753706</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.4192653822399078, 0.972823975753706)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E248FEE0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.290723279438806</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.58073462</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108864</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(68983563.66097748,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(68983563.66097748, -67108863.58073462, 67108864.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E248E770&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.434692078169047</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4192653822399078</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.067857094265648</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.4192653822399078, 5.067857094265648)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E248CA30&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05029948006104384</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4573602518292937</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.0608805534768</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(2.570215295534664, 34.525030001797575)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(2.570215295534664, 34.525030001797575, 0.45736025182929374, 14.0608805534768)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E4F02B30&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05680303836216775</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4418921315357676</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3455417619868786</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(2.8643176656704394,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(2.8643176656704394, 0.44189213153576756, 0.34554176198687864)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E4F03250&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.08700129645394164</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1317705455560986</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.182492013348628</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(0.4385683005418559,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(0.4385683005418559, 0.1317705455560986, 1.1824920133486283)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E4F541F0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1041073953645787</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.159470291642579</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4307595355259266</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(-0.051490602036345035,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(-0.051490602036345035, 1.1594702916425794, 0.4307595355259266)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E4FAD4E0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2114180152877492</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.357583956062404</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4770618872745614</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.2302186280903755,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.2302186280903755, 1.3575839560624043, 0.47706188727456145)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFF21D20&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2369441014883445</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.383008411820942</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4962172658746395</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(7.855910100555237,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(7.855910100555237, 1.3830084118209416, 0.49621726587463955)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E4F028F0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2699781763115947</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.431630340136339</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5772365611244211</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.4316303401363388, 0.5772365611244211)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E4FAC7C0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.27971221539137</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-163.4574273477658</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.53993408017246</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1503.8446356642967,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1503.8446356642967, -163.45742734776582, 22.539934080172465)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E4F02DA0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.133209828729448</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-67108863.51254825</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67108863.99999999</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(71076452.78602795,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(71076452.78602795, -67108863.512548245, 67108863.99999999)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E4FAF7F0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.133209830847137</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4874517541873107</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9441785859490281</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.48745175418731074, 0.9441785859490281)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E52137F0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.199538755611842</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4874517541873107</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.509675477483575</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.48745175418731074, 4.509675477483575)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E4F54430&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.06784759679713222</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01309479961293002</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.188092304740263</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.38837046604225445,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.38837046604225445, 0.013094799612930023, 1.1880923047402625)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E54249D0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.07156253534023804</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.057034796941109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3857000443376097</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(-0.03457048077281964,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(-0.03457048077281964, 1.0570347969411094, 0.3857000443376097)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E53B38E0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0781152078854789</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2767173919589847</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2497764303017835</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(4.0725466116934825,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(4.0725466116934825, 0.2767173919589847, 0.24977643030178354)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E54259C0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07819385785465616</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2746636302977958</v>
+      </c>
+      <c r="D5" t="n">
+        <v>609187.0055448913</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(4.102673563201616, 2452701.0471792053)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(4.102673563201616, 2452701.0471792053, 0.27466363029779584, 609187.0055448913)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E54245B0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2621259227167033</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.201262968503635</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4126309938681954</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.1759239543603623,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.1759239543603623, 1.2012629685036347, 0.41263099386819535)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E53B3B80&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.339101724082885</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.242034334530088</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4271914129435339</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(6.57631777579384,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(6.57631777579384, 1.2420343345300884, 0.4271914129435339)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5425B40&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4410780039897992</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.293945223144129</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5122642196021783</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.2939452231441289, 0.5122642196021783)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E53B36A0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4730570251160082</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-128.8726266896849</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.35269650355137</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1203.6364520321017,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1203.6364520321017, -128.87262668968495, 18.35269650355137)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5424F10&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.243106468197836</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-134217727.6634293</v>
+      </c>
+      <c r="D10" t="n">
+        <v>134217728</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(140193549.0009957,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(140193549.0009957, -134217727.66342928, 134217728.0)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E53B3D00&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.243106476842823</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3365707293912178</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9573744937529111</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.3365707293912178, 0.9573744937529111)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E53B3FD0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.049381517332503</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3365707293912178</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.137151390403665</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.3365707293912178, 4.137151390403665)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5425240&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.09751764207987329</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.304569724601442</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8005144707611096</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.4911163644716873,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.4911163644716873, 0.30456972460144205, 0.8005144707611096)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E52F9D80&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1104415143402648</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4462561034761425</v>
+      </c>
+      <c r="D3" t="n">
+        <v>723727197.9648285</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(2.9045336621262834, 2764843033.1937895)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(2.9045336621262834, 2764843033.1937895, 0.44625610347614253, 723727197.9648285)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E52F9720&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1105028598858805</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4463766301757083</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2620828908032568</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(2.90096319098244,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(2.90096319098244, 0.4463766301757083, 0.26208289080325675)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E52F98D0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1201832561749106</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9858787111559186</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3146293825468322</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(-0.11544846497434551,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(-0.11544846497434551, 0.9858787111559186, 0.3146293825468322)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E52FB310&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5349037225151829</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.150494769121408</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3696574517809708</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.2131177503276351,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.2131177503276351, 1.1504947691214082, 0.36965745178097076)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E52F9B40&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5649448016430796</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.139874858890285</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3532598788344258</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(4.771902904950403,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(4.771902904950403, 1.1398748588902845, 0.3532598788344258)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E52FAA10&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7723740463142916</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.206660726539602</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4592845200248392</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.206660726539602, 0.45928452002483916)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E53957E0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7841146133375489</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-115.2972777169158</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.37832103262468</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1228.3520753847783,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1228.3520753847783, -115.2972777169158, 16.378321032624683)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E52FB850&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.492098573228736</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4609949324036466</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7456657941359555</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.46099493240364664, 0.7456657941359555)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E52F8490&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.492098579751123</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.53900507</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108864</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(89998582.13400446,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(89998582.13400446, -67108863.53900507, 67108864.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E52F9D50&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.908381560345979</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4609949324036466</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.158021850968418</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.46099493240364664, 3.1580218509684177)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E52FBA90&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.02865045562859376</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.230311499391941</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9712901613721865</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.44154744728532264,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.44154744728532264, 0.23031149939194098, 0.9712901613721865)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E505F790&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03770591966736898</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4342589994780389</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29354.17877234888</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(3.2608516351695878, 110485.41486462299)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(3.2608516351695878, 110485.41486462299, 0.4342589994780389, 29354.17877234888)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E505F7F0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03770822562142893</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4342505706898813</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2656751925006694</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.260907253535156,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.260907253535156, 0.43425057068988127, 0.2656751925006694)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E505FC40&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.04238756953493864</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.069605019006983</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3500774204372252</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(-0.07757547330210177,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(-0.07757547330210177, 1.0696050190069828, 0.35007742043722523)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E505C1F0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3114482300809917</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.21716020633188</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3888449752725854</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.1683806130031003,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.1683806130031003, 1.2171602063318798, 0.38884497527258544)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E505F5B0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3662440221867641</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.233553400808039</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3808083036577061</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(4.877954196640204,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(4.877954196640204, 1.2335534008080389, 0.3808083036577061)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E505F6A0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5510498545439346</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.30058987314505</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4899730036377734</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.3005898731450503, 0.4899730036377734)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5178430&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5821384106082443</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-150.2946514182052</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.45972497329856</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1652.0347125678745,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1652.0347125678745, -150.2946514182052, 20.459724973298563)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E505E4D0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.302551537605034</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4740385166600978</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8265513564849525</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.4740385166600978, 0.8265513564849525)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E505EAD0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.302551562559482</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.52596148</v>
       </c>
       <c r="D11" t="n">
         <v>67108863.99999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(81817891.73244815,)</t>
+          <t>(81191403.54858433,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(81817891.73244815, -67108863.46868624, 67108863.99999999)</t>
+          <t>(81191403.54858433, -67108863.52596148, 67108863.99999999)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F5D750&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E505F250&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>#999999</t>
@@ -1894,13 +5904,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.307168906894017</v>
+        <v>3.182208593361047</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5313137614816954</v>
+        <v>0.4740385166600978</v>
       </c>
       <c r="D12" t="n">
-        <v>3.577989261068815</v>
+        <v>3.11421816904208</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1909,18 +5919,517 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.5313137614816954, 3.577989261068815)</t>
+          <t>(0.4740385166600978, 3.11421816904208)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000FFCD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E505DD20&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.02818020082626405</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4476070965076563</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.290537754276922</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(3.270147246429934,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(3.270147246429934, 0.4476070965076563, 0.290537754276922)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF6A7760&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0420072113397584</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1680356809871917</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.127412161663361</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.41814627553858075,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.41814627553858075, 0.16803568098719165, 1.1274121616633606)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E597D660&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05621186272113494</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.151252390405412</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3915567690621731</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(-0.04994049762967238,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(-0.04994049762967238, 1.151252390405412, 0.39155676906217307)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E597CE80&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2326791341338168</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.332378679234845</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4278757366963023</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(1.2005069718965258,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(1.2005069718965258, 1.3323786792348447, 0.4278757366963023)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E597C7C0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2550290447937293</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.255288008154444</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.624879919332363</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(5.2826731408215934, 12.733821753092302)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(5.2826731408215934, 12.733821753092302, -0.25528800815444397, 5.624879919332363)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E08AEC20&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2586317360206418</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.343407045326035</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4341893894629608</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(6.28595236072619,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(6.28595236072619, 1.3434070453260352, 0.43418938946296076)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF6A6440&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3310638079200859</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.397707215761477</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5299463704347085</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.3977072157614767, 0.5299463704347085)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22B0F70&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3421440647388757</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-219.5961807714202</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.91268949838646</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(2744.9921679568943,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(2744.9921679568943, -219.59618077142022, 27.912689498386456)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E08AC430&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.667550508963962</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5056984588560564</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8920087569054204</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.5056984588560564, 0.8920087569054204)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22B23B0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.667550523805659</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.49430154</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108864</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(75233414.43878564,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(75233414.43878564, -67108863.49430154, 67108864.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E08AC040&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.739817654445704</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5056984588560564</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.997239627083013</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.5056984588560564, 3.997239627083013)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E597C4C0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>#999999</t>
